--- a/Proyecto de grado IIND/1. Datos/9. Mapa_R.xlsx
+++ b/Proyecto de grado IIND/1. Datos/9. Mapa_R.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\Proyecto-de-grado-IIND\Proyecto de grado IIND\1. Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7176A092-6D8D-42BF-8378-DA9603D0A127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86AC3D2-B871-457A-9D97-F8D8B5F9E7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D8908B17-C822-4983-8DAE-B5BADBD758E9}"/>
   </bookViews>
   <sheets>
     <sheet name="no2" sheetId="1" r:id="rId1"/>
-    <sheet name="pm25" sheetId="2" r:id="rId2"/>
-    <sheet name="pm10" sheetId="3" r:id="rId3"/>
+    <sheet name="COORDENADAS " sheetId="4" r:id="rId2"/>
+    <sheet name="pm25" sheetId="2" r:id="rId3"/>
+    <sheet name="pm10" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
-  <si>
-    <t xml:space="preserve">     no2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
   <si>
     <t>Guaymaral</t>
   </si>
@@ -95,12 +93,6 @@
     <t xml:space="preserve">     pm10</t>
   </si>
   <si>
-    <t>longitud</t>
-  </si>
-  <si>
-    <t>latitud</t>
-  </si>
-  <si>
     <t>4°47'01.5"N</t>
   </si>
   <si>
@@ -179,56 +171,124 @@
     <t>74°5'2.28"W</t>
   </si>
   <si>
+    <t>latitud_g</t>
+  </si>
+  <si>
+    <t>longitud_g</t>
+  </si>
+  <si>
+    <t>http://maps.marnoto.com/es/conversor-coordenadas/#</t>
+  </si>
+  <si>
     <t>geometry</t>
   </si>
   <si>
-    <t>POINT (-74.14693 4.63147)</t>
-  </si>
-  <si>
-    <t>POINT (-74.14694 4.631351)</t>
-  </si>
-  <si>
-    <t>POINT (-74.14423 4.631103)</t>
-  </si>
-  <si>
-    <t>POINT (-74.14422 4.631224)</t>
-  </si>
-  <si>
-    <t>POINT (-74.14322 4.715198)</t>
-  </si>
-  <si>
-    <t>POINT (-74.07088 4.611678)</t>
-  </si>
-  <si>
-    <t>POINT (-74.16852 4.596675)</t>
-  </si>
-  <si>
-    <t>POINT (-74.22205 4.616533)</t>
-  </si>
-  <si>
-    <t>POINT (-74.08162 4.593247)</t>
-  </si>
-  <si>
-    <t>POINT (-74.08163 4.593355)</t>
-  </si>
-  <si>
-    <t>POINT (-74.08271 4.5928)</t>
-  </si>
-  <si>
-    <t>POINT (-74.06996 4.699603)</t>
-  </si>
-  <si>
-    <t>POINT (-74.06996 4.759603)</t>
+    <t>geometry_1</t>
+  </si>
+  <si>
+    <t>POINT (-74.044139 4.78375)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.044139 4.78375))</t>
+  </si>
+  <si>
+    <t>POINT (-74.066981 4.625486)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.066981 4.625486))</t>
+  </si>
+  <si>
+    <t>POINT (-74.093461 4.71035)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.093461 4.71035))</t>
+  </si>
+  <si>
+    <t>POINT (-74.030417 4.761247)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.030417 4.761247))</t>
+  </si>
+  <si>
+    <t>POINT (-74.082483 4.6907)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.082483 4.6907))</t>
+  </si>
+  <si>
+    <t>POINT (-74.083814 4.572553)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.083814 4.572553))</t>
+  </si>
+  <si>
+    <t>POINT (-74.30956 4.576225)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.30956 4.576225))</t>
+  </si>
+  <si>
+    <t>POINT (-74.125889 4.735806)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.125889 4.735806))</t>
+  </si>
+  <si>
+    <t>POINT (-74.1485 4.595833)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.1485 4.595833))</t>
+  </si>
+  <si>
+    <t>POINT (-74.143819 4.678242)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.143819 4.678242))</t>
+  </si>
+  <si>
+    <t>POINT (-74.161333 4.62505)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.161333 4.62505))</t>
+  </si>
+  <si>
+    <t>POINT (-74.117483 4.631767)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.117483 4.631767))</t>
+  </si>
+  <si>
+    <t>POINT (-74.083967 4.658467)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-74.083967 4.658467))</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>lat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,16 +311,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -274,6 +339,539 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C13D59-86AC-4B70-BF11-44738A24C7F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="5068957" cy="1908948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>515469</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>162954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B92BD9-1245-4273-BA95-5A9D81DFEA89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5715000"/>
+          <a:ext cx="5087469" cy="1877454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12432</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8812BAB-2E63-448E-BE40-5D3CE0DB70B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7620000"/>
+          <a:ext cx="5346432" cy="2051538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>78582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E6F7D9-6757-44D9-9824-BCB94C09B720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9715500"/>
+          <a:ext cx="5267325" cy="1983582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>755431</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>75712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B943D06-6F45-462E-8AB5-1FA801E44A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11811000"/>
+          <a:ext cx="5327431" cy="1980712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>154457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA70DFF6-089B-4BC8-A833-C4DCE4AEAD14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13906500"/>
+          <a:ext cx="5362575" cy="2059457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E8BDBD-E6CA-49B2-A69A-455EC63AA32C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16002000"/>
+          <a:ext cx="5353050" cy="2019482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>140800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7FA302-D5BD-483C-9006-CBCA5B0775CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18097500"/>
+          <a:ext cx="5351859" cy="2045800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>164638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D315878A-5D1E-4AE4-AD4F-D96CC330D52D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20193000"/>
+          <a:ext cx="5369718" cy="2069638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>130259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384CD1F0-B587-4DC1-991E-6B0BB2A27669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="22288500"/>
+          <a:ext cx="5391150" cy="2035259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>127993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FD0BB9-B216-496F-9453-35FA1D62658C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24384000"/>
+          <a:ext cx="5372100" cy="2032993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>706118</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>171926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82B0997-57DE-4777-BAB4-76A6C90F2576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26479500"/>
+          <a:ext cx="9088118" cy="3410426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,295 +1171,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9952A14-C354-4EDF-893B-23287413DCBB}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.7837500000000004</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-74.044139000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3">
+        <v>15.127000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.6254860000000004</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-74.066980999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>15.127000000000001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3">
+        <v>12.085000000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4.71035</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-74.093461000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>12.085000000000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3">
+        <v>10.375</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.761247</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-74.030417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>10.375</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3">
+        <v>15.95</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.6906999999999996</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-74.082482999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>15.95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3">
+        <v>12.31</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.5725530000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-74.083814000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>12.31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3">
+        <v>13.597</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.576225</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-74.130955999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>13.597</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3">
+        <v>18.579000000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.7358060000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-74.125889000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>18.579000000000001</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.5958329999999998</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-74.148499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>24.5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3">
+        <v>19.117000000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4.678242</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-74.143818999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>19.117000000000001</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3">
+        <v>19.82</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.6250499999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-74.161332999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>19.82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3">
+        <v>20.16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.631767</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-74.117482999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>20.16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
         <v>13.195</v>
       </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
+      <c r="C14" s="4">
+        <v>4.6584669999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-74.083967000000001</v>
       </c>
     </row>
   </sheetData>
@@ -870,6 +1388,226 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10251084-6BE3-47B3-9528-50AAB12D5F54}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{4C671FEF-0D6B-49C8-A5F2-BE4ED95498F6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B764E-A49D-4F25-9A7F-B085922D82E5}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -881,21 +1619,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>34.65</v>
@@ -903,10 +1641,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>21.3</v>
@@ -914,10 +1652,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -925,10 +1663,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>17.625</v>
@@ -936,10 +1674,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>16.73</v>
@@ -947,10 +1685,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>15.467000000000001</v>
@@ -958,10 +1696,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>15.154</v>
@@ -969,10 +1707,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>15.007999999999999</v>
@@ -980,10 +1718,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>14.372999999999999</v>
@@ -991,10 +1729,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>14.266999999999999</v>
@@ -1002,10 +1740,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>14.191000000000001</v>
@@ -1013,10 +1751,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>12.858000000000001</v>
@@ -1024,10 +1762,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>11.664199999999999</v>
@@ -1038,7 +1776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA9A0E1-50C4-4A51-9037-4BFF2770DDB4}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -1050,21 +1788,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>70.86</v>
@@ -1072,10 +1810,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>45.68</v>
@@ -1083,10 +1821,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>37.106999999999999</v>
@@ -1094,10 +1832,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>35.317999999999998</v>
@@ -1105,10 +1843,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>34.83</v>
@@ -1116,10 +1854,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>33.39</v>
@@ -1127,10 +1865,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>31.03</v>
@@ -1138,10 +1876,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>28.02</v>
@@ -1149,10 +1887,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>25.305</v>
@@ -1160,10 +1898,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>24.131</v>
@@ -1171,10 +1909,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>23.158000000000001</v>
@@ -1182,10 +1920,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>22.239000000000001</v>
@@ -1193,10 +1931,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>22.097000000000001</v>
